--- a/AH_ACOGIDA INTEGRAL CONTINGENCIA_1hoja_Recibí.xlsx
+++ b/AH_ACOGIDA INTEGRAL CONTINGENCIA_1hoja_Recibí.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A217D83-B5D0-4465-A7B2-6ADCFDEF8379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C8D9B-70D4-4549-A7DA-4A61D964ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,7 +326,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -454,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -520,17 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -544,17 +533,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -620,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -645,170 +623,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -829,23 +648,158 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,7 +856,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="5990828" y="0"/>
           <a:ext cx="985915" cy="555816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1249,10 +1203,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1276,910 +1230,814 @@
     <col min="17" max="17" width="4.69921875" customWidth="1"/>
     <col min="18" max="18" width="1.09765625" customWidth="1"/>
     <col min="19" max="19" width="5.796875" customWidth="1"/>
-    <col min="20" max="20" width="2.09765625" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="54.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+    </row>
+    <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="22.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="22.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="62" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" ht="6.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" ht="6.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="68"/>
+      <c r="H13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="11" t="s">
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="76" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="42" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="42" t="s">
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24" t="s">
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24" t="s">
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="24" t="s">
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24" t="s">
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24" t="s">
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="77">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="60">
         <f>SUM(P22:P26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
       <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64" t="s">
+    </row>
+    <row r="30" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="65" t="s">
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="67"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="6"/>
-    </row>
-    <row r="31" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="64"/>
-      <c r="B31" s="68" t="s">
+      <c r="N30" s="14"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="70" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="71"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="18"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-    </row>
-    <row r="32" spans="1:21" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="72" t="s">
+    </row>
+    <row r="32" spans="1:20" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="71"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
-      <c r="B33" s="73" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="75"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A7:T7"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:T9"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A18:T18"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="G19:M20"/>
-    <mergeCell ref="N19:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A28:T28"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:T10"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="N15:P15"/>
+  <mergeCells count="77">
+    <mergeCell ref="G19:S20"/>
+    <mergeCell ref="A19:F20"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:E15"/>
@@ -2187,14 +2045,88 @@
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:S10"/>
+    <mergeCell ref="A11:S11"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A12:S12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A8:S8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8a6c22b4-f502-467b-9b89-46c6e42a7840">
@@ -2203,15 +2135,6 @@
     <TaxCatchAll xmlns="832a04d9-e1a4-4881-9485-a5ecd230e8ef" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2470,26 +2393,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0AFCAC6-3234-4B08-83CF-00E829604C47}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8E8177-42F8-48B5-BFAD-81476B068E84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8a6c22b4-f502-467b-9b89-46c6e42a7840"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="832a04d9-e1a4-4881-9485-a5ecd230e8ef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8E8177-42F8-48B5-BFAD-81476B068E84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0AFCAC6-3234-4B08-83CF-00E829604C47}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8a6c22b4-f502-467b-9b89-46c6e42a7840"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="832a04d9-e1a4-4881-9485-a5ecd230e8ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
